--- a/SourceCode/ExcisePlaning/Contents/ReportTemplates/Report002_RptReserveBudget_Template.xlsx
+++ b/SourceCode/ExcisePlaning/Contents/ReportTemplates/Report002_RptReserveBudget_Template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Environment_Owner\Developments\C#\ASP.NET\Planing-กรมสรรพสามิต\SourceCode\ExcisePlaning\Contents\ReportTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Environment_Owner\Developments\C#\ASP.NET\Planing-กรมสรรพสามิต\CSharpWebExcisePlaning\SourceCode\ExcisePlaning\Contents\ReportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2832" yWindow="3540" windowWidth="21648" windowHeight="13368"/>
+    <workbookView xWindow="2832" yWindow="3996" windowWidth="21648" windowHeight="13368"/>
   </bookViews>
   <sheets>
     <sheet name="TEMPLATE" sheetId="8" r:id="rId1"/>
@@ -604,7 +604,7 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="E3:F3"/>
   </mergeCells>
-  <pageMargins left="0.3" right="0.22" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="48" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>